--- a/JENIS AISI & JIS, SUPPLIER.xlsx
+++ b/JENIS AISI & JIS, SUPPLIER.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TA RENAL\kebutuhan a iyus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\renaldi_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C02CE1-1421-404B-B135-2C5E825E4BBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{50F4C871-D0A1-4A0A-BFFB-B0EFC41E4996}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1419,7 +1418,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1589,6 +1588,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1609,22 +1624,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1939,26 +1938,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679597F0-7D9F-4689-AC18-178BD9B49985}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="F224" sqref="F224:F225"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="5.42578125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="18"/>
-    <col min="6" max="6" width="22.7109375" style="18" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.1796875" style="11"/>
+    <col min="2" max="2" width="5.453125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="11"/>
+    <col min="6" max="6" width="22.7265625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1978,7 +1977,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -1988,17 +1987,17 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="13" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -2008,15 +2007,15 @@
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -2026,15 +2025,15 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -2044,15 +2043,15 @@
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F5" s="19" t="s">
+      <c r="E5" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -2062,15 +2061,15 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>6</v>
       </c>
@@ -2080,15 +2079,15 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="E7" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>7</v>
       </c>
@@ -2098,15 +2097,15 @@
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>8</v>
       </c>
@@ -2116,15 +2115,15 @@
       <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F9" s="15" t="s">
+      <c r="E9" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>9</v>
       </c>
@@ -2134,15 +2133,15 @@
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F10" s="15" t="s">
+      <c r="E10" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -2152,15 +2151,15 @@
       <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>11</v>
       </c>
@@ -2170,15 +2169,15 @@
       <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>12</v>
       </c>
@@ -2188,15 +2187,15 @@
       <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>13</v>
       </c>
@@ -2206,15 +2205,15 @@
       <c r="D14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>14</v>
       </c>
@@ -2224,15 +2223,15 @@
       <c r="D15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F15" s="15" t="s">
+      <c r="E15" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -2242,15 +2241,15 @@
       <c r="D16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>16</v>
       </c>
@@ -2260,15 +2259,15 @@
       <c r="D17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F17" s="15" t="s">
+      <c r="E17" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>17</v>
       </c>
@@ -2278,15 +2277,15 @@
       <c r="D18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F18" s="15" t="s">
+      <c r="E18" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>18</v>
       </c>
@@ -2296,15 +2295,15 @@
       <c r="D19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F19" s="15" t="s">
+      <c r="E19" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>19</v>
       </c>
@@ -2314,15 +2313,15 @@
       <c r="D20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F20" s="15" t="s">
+      <c r="E20" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>20</v>
       </c>
@@ -2332,15 +2331,15 @@
       <c r="D21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>21</v>
       </c>
@@ -2350,15 +2349,15 @@
       <c r="D22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F22" s="19" t="s">
+      <c r="E22" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>22</v>
       </c>
@@ -2368,15 +2367,15 @@
       <c r="D23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E23" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>23</v>
       </c>
@@ -2386,15 +2385,15 @@
       <c r="D24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E24" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>24</v>
       </c>
@@ -2404,15 +2403,15 @@
       <c r="D25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>25</v>
       </c>
@@ -2422,15 +2421,15 @@
       <c r="D26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E26" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>26</v>
       </c>
@@ -2440,15 +2439,15 @@
       <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E27" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>27</v>
       </c>
@@ -2458,17 +2457,17 @@
       <c r="D28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F28" s="19" t="s">
+      <c r="E28" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="13" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>28</v>
       </c>
@@ -2478,15 +2477,15 @@
       <c r="D29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F29" s="19" t="s">
+      <c r="E29" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>29</v>
       </c>
@@ -2496,15 +2495,15 @@
       <c r="D30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F30" s="19" t="s">
+      <c r="E30" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>30</v>
       </c>
@@ -2514,15 +2513,15 @@
       <c r="D31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F31" s="19" t="s">
+      <c r="E31" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>31</v>
       </c>
@@ -2532,15 +2531,15 @@
       <c r="D32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F32" s="19" t="s">
+      <c r="E32" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F32" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>32</v>
       </c>
@@ -2550,15 +2549,15 @@
       <c r="D33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F33" s="19" t="s">
+      <c r="E33" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>33</v>
       </c>
@@ -2568,15 +2567,15 @@
       <c r="D34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F34" s="19" t="s">
+      <c r="E34" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F34" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>34</v>
       </c>
@@ -2586,15 +2585,15 @@
       <c r="D35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F35" s="19" t="s">
+      <c r="E35" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>35</v>
       </c>
@@ -2604,15 +2603,15 @@
       <c r="D36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F36" s="19" t="s">
+      <c r="E36" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F36" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>36</v>
       </c>
@@ -2622,15 +2621,15 @@
       <c r="D37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F37" s="19" t="s">
+      <c r="E37" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F37" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>37</v>
       </c>
@@ -2640,15 +2639,15 @@
       <c r="D38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F38" s="19" t="s">
+      <c r="E38" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F38" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>38</v>
       </c>
@@ -2658,15 +2657,15 @@
       <c r="D39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F39" s="19" t="s">
+      <c r="E39" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>39</v>
       </c>
@@ -2676,15 +2675,15 @@
       <c r="D40" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F40" s="19" t="s">
+      <c r="E40" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F40" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>40</v>
       </c>
@@ -2694,15 +2693,15 @@
       <c r="D41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F41" s="19" t="s">
+      <c r="E41" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F41" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>41</v>
       </c>
@@ -2712,15 +2711,15 @@
       <c r="D42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F42" s="19" t="s">
+      <c r="E42" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F42" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>42</v>
       </c>
@@ -2730,15 +2729,15 @@
       <c r="D43" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F43" s="19" t="s">
+      <c r="E43" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F43" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>43</v>
       </c>
@@ -2748,15 +2747,15 @@
       <c r="D44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F44" s="19" t="s">
+      <c r="E44" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>44</v>
       </c>
@@ -2766,15 +2765,15 @@
       <c r="D45" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F45" s="19" t="s">
+      <c r="E45" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F45" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>45</v>
       </c>
@@ -2784,15 +2783,15 @@
       <c r="D46" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F46" s="19" t="s">
+      <c r="E46" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F46" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>46</v>
       </c>
@@ -2802,15 +2801,15 @@
       <c r="D47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F47" s="19" t="s">
+      <c r="E47" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F47" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>47</v>
       </c>
@@ -2820,15 +2819,15 @@
       <c r="D48" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F48" s="19" t="s">
+      <c r="E48" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F48" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>48</v>
       </c>
@@ -2838,15 +2837,15 @@
       <c r="D49" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F49" s="19" t="s">
+      <c r="E49" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F49" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>49</v>
       </c>
@@ -2856,15 +2855,15 @@
       <c r="D50" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F50" s="19" t="s">
+      <c r="E50" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F50" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>50</v>
       </c>
@@ -2874,15 +2873,15 @@
       <c r="D51" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F51" s="19" t="s">
+      <c r="E51" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F51" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>51</v>
       </c>
@@ -2892,15 +2891,15 @@
       <c r="D52" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E52" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F52" s="19" t="s">
+      <c r="E52" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F52" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>52</v>
       </c>
@@ -2910,15 +2909,15 @@
       <c r="D53" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F53" s="19" t="s">
+      <c r="E53" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F53" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>53</v>
       </c>
@@ -2928,15 +2927,15 @@
       <c r="D54" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E54" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F54" s="19" t="s">
+      <c r="E54" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F54" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G54" s="14"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <v>54</v>
       </c>
@@ -2946,15 +2945,15 @@
       <c r="D55" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E55" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F55" s="19" t="s">
+      <c r="E55" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F55" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G55" s="14"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>55</v>
       </c>
@@ -2964,15 +2963,15 @@
       <c r="D56" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E56" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F56" s="19" t="s">
+      <c r="E56" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F56" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G56" s="8"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <v>56</v>
       </c>
@@ -2982,15 +2981,15 @@
       <c r="D57" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E57" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F57" s="19" t="s">
+      <c r="E57" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F57" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G57" s="14"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <v>57</v>
       </c>
@@ -3000,15 +2999,15 @@
       <c r="D58" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E58" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F58" s="19" t="s">
+      <c r="E58" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F58" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G58" s="14"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <v>58</v>
       </c>
@@ -3018,15 +3017,15 @@
       <c r="D59" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E59" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F59" s="19" t="s">
+      <c r="E59" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F59" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G59" s="8"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G59" s="14"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>59</v>
       </c>
@@ -3036,15 +3035,15 @@
       <c r="D60" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E60" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F60" s="19" t="s">
+      <c r="E60" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F60" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G60" s="14"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <v>60</v>
       </c>
@@ -3054,15 +3053,15 @@
       <c r="D61" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F61" s="19" t="s">
+      <c r="E61" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F61" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G61" s="14"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>61</v>
       </c>
@@ -3072,15 +3071,15 @@
       <c r="D62" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E62" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F62" s="19" t="s">
+      <c r="E62" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F62" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G62" s="14"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
         <v>62</v>
       </c>
@@ -3090,15 +3089,15 @@
       <c r="D63" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E63" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F63" s="19" t="s">
+      <c r="E63" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F63" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G63" s="14"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <v>63</v>
       </c>
@@ -3108,15 +3107,15 @@
       <c r="D64" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E64" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F64" s="19" t="s">
+      <c r="E64" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F64" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G64" s="8"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G64" s="14"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <v>64</v>
       </c>
@@ -3126,15 +3125,15 @@
       <c r="D65" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E65" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F65" s="19" t="s">
+      <c r="E65" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F65" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G65" s="8"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
         <v>65</v>
       </c>
@@ -3144,15 +3143,15 @@
       <c r="D66" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E66" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F66" s="19" t="s">
+      <c r="E66" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F66" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G66" s="8"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G66" s="14"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="2">
         <v>66</v>
       </c>
@@ -3162,15 +3161,15 @@
       <c r="D67" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E67" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F67" s="19" t="s">
+      <c r="E67" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F67" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G67" s="8"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G67" s="14"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="2">
         <v>67</v>
       </c>
@@ -3180,15 +3179,15 @@
       <c r="D68" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E68" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F68" s="19" t="s">
+      <c r="E68" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F68" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G68" s="8"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G68" s="14"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="2">
         <v>68</v>
       </c>
@@ -3198,15 +3197,15 @@
       <c r="D69" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E69" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F69" s="19" t="s">
+      <c r="E69" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F69" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G69" s="8"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G69" s="14"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="2">
         <v>69</v>
       </c>
@@ -3216,15 +3215,15 @@
       <c r="D70" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E70" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F70" s="19" t="s">
+      <c r="E70" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F70" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G70" s="8"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="2">
         <v>70</v>
       </c>
@@ -3234,15 +3233,15 @@
       <c r="D71" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E71" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F71" s="19" t="s">
+      <c r="E71" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F71" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G71" s="8"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G71" s="14"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
         <v>71</v>
       </c>
@@ -3252,15 +3251,15 @@
       <c r="D72" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E72" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F72" s="19" t="s">
+      <c r="E72" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F72" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G72" s="15"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="2">
         <v>72</v>
       </c>
@@ -3270,17 +3269,17 @@
       <c r="D73" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E73" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G73" s="7" t="s">
+      <c r="E73" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G73" s="13" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="2">
         <v>73</v>
       </c>
@@ -3290,15 +3289,15 @@
       <c r="D74" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E74" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F74" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G74" s="8"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E74" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="2">
         <v>74</v>
       </c>
@@ -3308,15 +3307,15 @@
       <c r="D75" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E75" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G75" s="8"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E75" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="2">
         <v>75</v>
       </c>
@@ -3326,15 +3325,15 @@
       <c r="D76" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E76" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G76" s="8"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E76" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G76" s="14"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="2">
         <v>76</v>
       </c>
@@ -3344,15 +3343,15 @@
       <c r="D77" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E77" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G77" s="8"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E77" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G77" s="14"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="2">
         <v>77</v>
       </c>
@@ -3362,15 +3361,15 @@
       <c r="D78" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E78" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F78" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G78" s="8"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E78" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G78" s="14"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="2">
         <v>78</v>
       </c>
@@ -3380,15 +3379,15 @@
       <c r="D79" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E79" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G79" s="8"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E79" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G79" s="14"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="2">
         <v>79</v>
       </c>
@@ -3398,15 +3397,15 @@
       <c r="D80" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E80" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F80" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G80" s="8"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E80" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G80" s="14"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="2">
         <v>80</v>
       </c>
@@ -3416,15 +3415,15 @@
       <c r="D81" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E81" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F81" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G81" s="8"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E81" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G81" s="14"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="2">
         <v>81</v>
       </c>
@@ -3434,15 +3433,15 @@
       <c r="D82" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E82" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F82" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G82" s="8"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E82" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G82" s="14"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="2">
         <v>82</v>
       </c>
@@ -3452,15 +3451,15 @@
       <c r="D83" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E83" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F83" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G83" s="8"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E83" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G83" s="14"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="2">
         <v>83</v>
       </c>
@@ -3470,15 +3469,15 @@
       <c r="D84" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E84" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F84" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G84" s="8"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E84" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G84" s="14"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="2">
         <v>84</v>
       </c>
@@ -3488,15 +3487,15 @@
       <c r="D85" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E85" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F85" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G85" s="8"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E85" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G85" s="14"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="2">
         <v>85</v>
       </c>
@@ -3506,15 +3505,15 @@
       <c r="D86" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E86" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F86" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G86" s="8"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E86" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G86" s="14"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="2">
         <v>86</v>
       </c>
@@ -3524,15 +3523,15 @@
       <c r="D87" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E87" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F87" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G87" s="8"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E87" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G87" s="14"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="2">
         <v>87</v>
       </c>
@@ -3542,15 +3541,15 @@
       <c r="D88" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E88" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F88" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G88" s="8"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E88" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G88" s="14"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="2">
         <v>88</v>
       </c>
@@ -3560,15 +3559,15 @@
       <c r="D89" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E89" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F89" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G89" s="8"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E89" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G89" s="14"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" s="2">
         <v>89</v>
       </c>
@@ -3578,15 +3577,15 @@
       <c r="D90" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E90" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F90" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G90" s="8"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E90" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G90" s="14"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="2">
         <v>90</v>
       </c>
@@ -3596,15 +3595,15 @@
       <c r="D91" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E91" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F91" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G91" s="8"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E91" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G91" s="14"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="2">
         <v>91</v>
       </c>
@@ -3614,15 +3613,15 @@
       <c r="D92" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E92" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F92" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G92" s="8"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E92" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G92" s="14"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="2">
         <v>92</v>
       </c>
@@ -3632,15 +3631,15 @@
       <c r="D93" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E93" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F93" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G93" s="8"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E93" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G93" s="14"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="2">
         <v>93</v>
       </c>
@@ -3650,15 +3649,15 @@
       <c r="D94" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E94" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F94" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G94" s="8"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E94" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G94" s="14"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="2">
         <v>94</v>
       </c>
@@ -3668,15 +3667,15 @@
       <c r="D95" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E95" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F95" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G95" s="8"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E95" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G95" s="14"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="2">
         <v>95</v>
       </c>
@@ -3686,15 +3685,15 @@
       <c r="D96" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E96" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F96" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G96" s="8"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E96" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G96" s="14"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="2">
         <v>96</v>
       </c>
@@ -3704,15 +3703,15 @@
       <c r="D97" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E97" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F97" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G97" s="8"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E97" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G97" s="14"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="2">
         <v>97</v>
       </c>
@@ -3722,15 +3721,15 @@
       <c r="D98" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E98" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F98" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G98" s="8"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E98" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G98" s="14"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="2">
         <v>98</v>
       </c>
@@ -3740,15 +3739,15 @@
       <c r="D99" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E99" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F99" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G99" s="8"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E99" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G99" s="14"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="2">
         <v>99</v>
       </c>
@@ -3758,15 +3757,15 @@
       <c r="D100" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E100" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F100" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G100" s="8"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E100" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G100" s="14"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="2">
         <v>100</v>
       </c>
@@ -3776,15 +3775,15 @@
       <c r="D101" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E101" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F101" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G101" s="8"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E101" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G101" s="14"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="2">
         <v>101</v>
       </c>
@@ -3794,15 +3793,15 @@
       <c r="D102" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E102" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F102" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G102" s="8"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E102" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G102" s="14"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="2">
         <v>102</v>
       </c>
@@ -3812,15 +3811,15 @@
       <c r="D103" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E103" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F103" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G103" s="8"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E103" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G103" s="14"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="2">
         <v>103</v>
       </c>
@@ -3830,15 +3829,15 @@
       <c r="D104" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E104" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F104" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G104" s="8"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E104" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G104" s="14"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="2">
         <v>104</v>
       </c>
@@ -3848,15 +3847,15 @@
       <c r="D105" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E105" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F105" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G105" s="8"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E105" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G105" s="14"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="2">
         <v>105</v>
       </c>
@@ -3866,15 +3865,15 @@
       <c r="D106" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E106" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F106" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G106" s="8"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E106" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G106" s="14"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="2">
         <v>106</v>
       </c>
@@ -3884,15 +3883,15 @@
       <c r="D107" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E107" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F107" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G107" s="8"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E107" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G107" s="14"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="2">
         <v>107</v>
       </c>
@@ -3902,15 +3901,15 @@
       <c r="D108" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E108" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F108" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G108" s="8"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E108" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G108" s="14"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="2">
         <v>108</v>
       </c>
@@ -3920,15 +3919,15 @@
       <c r="D109" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E109" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F109" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G109" s="8"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E109" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G109" s="14"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="2">
         <v>109</v>
       </c>
@@ -3938,15 +3937,15 @@
       <c r="D110" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E110" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F110" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G110" s="8"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E110" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G110" s="14"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="2">
         <v>110</v>
       </c>
@@ -3956,15 +3955,15 @@
       <c r="D111" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E111" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F111" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G111" s="8"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E111" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G111" s="14"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="2">
         <v>111</v>
       </c>
@@ -3974,15 +3973,15 @@
       <c r="D112" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E112" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F112" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G112" s="8"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E112" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G112" s="14"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="2">
         <v>112</v>
       </c>
@@ -3992,15 +3991,15 @@
       <c r="D113" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E113" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F113" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G113" s="8"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E113" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G113" s="14"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="2">
         <v>113</v>
       </c>
@@ -4010,15 +4009,15 @@
       <c r="D114" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E114" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F114" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G114" s="8"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E114" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G114" s="14"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="2">
         <v>114</v>
       </c>
@@ -4028,15 +4027,15 @@
       <c r="D115" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E115" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F115" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G115" s="8"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E115" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G115" s="14"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="2">
         <v>115</v>
       </c>
@@ -4046,15 +4045,15 @@
       <c r="D116" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E116" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F116" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G116" s="8"/>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E116" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G116" s="14"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="2">
         <v>116</v>
       </c>
@@ -4064,15 +4063,15 @@
       <c r="D117" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E117" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F117" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G117" s="8"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E117" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G117" s="14"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="2">
         <v>117</v>
       </c>
@@ -4082,15 +4081,15 @@
       <c r="D118" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E118" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F118" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G118" s="8"/>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E118" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G118" s="14"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="2">
         <v>118</v>
       </c>
@@ -4100,15 +4099,15 @@
       <c r="D119" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E119" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F119" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G119" s="8"/>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E119" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G119" s="14"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="2">
         <v>119</v>
       </c>
@@ -4118,15 +4117,15 @@
       <c r="D120" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E120" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F120" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G120" s="8"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E120" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G120" s="14"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="2">
         <v>120</v>
       </c>
@@ -4136,15 +4135,15 @@
       <c r="D121" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E121" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F121" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G121" s="8"/>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E121" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G121" s="14"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="2">
         <v>121</v>
       </c>
@@ -4154,15 +4153,15 @@
       <c r="D122" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E122" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F122" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G122" s="8"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E122" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G122" s="14"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="2">
         <v>122</v>
       </c>
@@ -4172,15 +4171,15 @@
       <c r="D123" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E123" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F123" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G123" s="8"/>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E123" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G123" s="14"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="2">
         <v>123</v>
       </c>
@@ -4190,15 +4189,15 @@
       <c r="D124" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E124" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F124" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G124" s="8"/>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E124" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G124" s="14"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="2">
         <v>124</v>
       </c>
@@ -4208,15 +4207,15 @@
       <c r="D125" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E125" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F125" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G125" s="8"/>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E125" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G125" s="14"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="2">
         <v>125</v>
       </c>
@@ -4226,15 +4225,15 @@
       <c r="D126" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E126" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F126" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G126" s="8"/>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E126" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G126" s="14"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="2">
         <v>126</v>
       </c>
@@ -4244,15 +4243,15 @@
       <c r="D127" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E127" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F127" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G127" s="8"/>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E127" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G127" s="14"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="2">
         <v>127</v>
       </c>
@@ -4262,15 +4261,15 @@
       <c r="D128" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E128" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F128" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G128" s="8"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E128" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G128" s="14"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="2">
         <v>128</v>
       </c>
@@ -4280,15 +4279,15 @@
       <c r="D129" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E129" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F129" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G129" s="8"/>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E129" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G129" s="14"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="2">
         <v>129</v>
       </c>
@@ -4298,15 +4297,15 @@
       <c r="D130" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E130" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F130" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G130" s="8"/>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E130" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G130" s="14"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131" s="2">
         <v>130</v>
       </c>
@@ -4316,15 +4315,15 @@
       <c r="D131" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E131" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F131" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G131" s="8"/>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E131" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G131" s="14"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132" s="2">
         <v>131</v>
       </c>
@@ -4334,15 +4333,15 @@
       <c r="D132" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E132" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F132" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G132" s="8"/>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E132" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G132" s="14"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B133" s="2">
         <v>132</v>
       </c>
@@ -4352,15 +4351,15 @@
       <c r="D133" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E133" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F133" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G133" s="8"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E133" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G133" s="14"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134" s="2">
         <v>133</v>
       </c>
@@ -4370,15 +4369,15 @@
       <c r="D134" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E134" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F134" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G134" s="8"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E134" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G134" s="14"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B135" s="2">
         <v>134</v>
       </c>
@@ -4388,15 +4387,15 @@
       <c r="D135" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E135" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F135" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G135" s="8"/>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E135" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G135" s="14"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B136" s="2">
         <v>135</v>
       </c>
@@ -4406,15 +4405,15 @@
       <c r="D136" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E136" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F136" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G136" s="8"/>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E136" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G136" s="14"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137" s="2">
         <v>136</v>
       </c>
@@ -4424,15 +4423,15 @@
       <c r="D137" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E137" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F137" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G137" s="8"/>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E137" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G137" s="14"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B138" s="2">
         <v>137</v>
       </c>
@@ -4442,15 +4441,15 @@
       <c r="D138" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E138" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F138" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G138" s="8"/>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E138" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G138" s="14"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B139" s="2">
         <v>138</v>
       </c>
@@ -4460,15 +4459,15 @@
       <c r="D139" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E139" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F139" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G139" s="8"/>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E139" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G139" s="14"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B140" s="2">
         <v>139</v>
       </c>
@@ -4478,15 +4477,15 @@
       <c r="D140" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E140" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F140" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G140" s="8"/>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E140" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G140" s="14"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B141" s="2">
         <v>140</v>
       </c>
@@ -4496,15 +4495,15 @@
       <c r="D141" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E141" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F141" s="19" t="s">
+      <c r="E141" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F141" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="G141" s="8"/>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G141" s="14"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B142" s="2">
         <v>141</v>
       </c>
@@ -4514,15 +4513,15 @@
       <c r="D142" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E142" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F142" s="19" t="s">
+      <c r="E142" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F142" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="G142" s="8"/>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G142" s="14"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="2">
         <v>142</v>
       </c>
@@ -4532,15 +4531,15 @@
       <c r="D143" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E143" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F143" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G143" s="8"/>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E143" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G143" s="14"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B144" s="2">
         <v>143</v>
       </c>
@@ -4550,15 +4549,15 @@
       <c r="D144" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E144" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F144" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G144" s="8"/>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E144" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G144" s="14"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B145" s="2">
         <v>144</v>
       </c>
@@ -4568,15 +4567,15 @@
       <c r="D145" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E145" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F145" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G145" s="8"/>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E145" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G145" s="14"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B146" s="2">
         <v>145</v>
       </c>
@@ -4586,15 +4585,15 @@
       <c r="D146" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E146" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F146" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G146" s="8"/>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E146" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G146" s="14"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B147" s="2">
         <v>146</v>
       </c>
@@ -4604,15 +4603,15 @@
       <c r="D147" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E147" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F147" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G147" s="8"/>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E147" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G147" s="14"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B148" s="2">
         <v>147</v>
       </c>
@@ -4622,15 +4621,15 @@
       <c r="D148" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E148" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F148" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G148" s="8"/>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E148" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G148" s="14"/>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="2">
         <v>148</v>
       </c>
@@ -4640,15 +4639,15 @@
       <c r="D149" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E149" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F149" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G149" s="8"/>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E149" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G149" s="14"/>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B150" s="2">
         <v>149</v>
       </c>
@@ -4658,15 +4657,15 @@
       <c r="D150" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="E150" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F150" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G150" s="8"/>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E150" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G150" s="14"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151" s="2">
         <v>150</v>
       </c>
@@ -4676,15 +4675,15 @@
       <c r="D151" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E151" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F151" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G151" s="8"/>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E151" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G151" s="14"/>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152" s="2">
         <v>151</v>
       </c>
@@ -4694,15 +4693,15 @@
       <c r="D152" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E152" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F152" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G152" s="8"/>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E152" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G152" s="14"/>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B153" s="2">
         <v>152</v>
       </c>
@@ -4712,15 +4711,15 @@
       <c r="D153" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E153" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F153" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G153" s="8"/>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E153" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F153" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G153" s="14"/>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B154" s="2">
         <v>153</v>
       </c>
@@ -4730,15 +4729,15 @@
       <c r="D154" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E154" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F154" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G154" s="8"/>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E154" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G154" s="14"/>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B155" s="2">
         <v>154</v>
       </c>
@@ -4748,15 +4747,15 @@
       <c r="D155" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E155" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F155" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G155" s="8"/>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E155" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G155" s="14"/>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B156" s="2">
         <v>155</v>
       </c>
@@ -4766,15 +4765,15 @@
       <c r="D156" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E156" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F156" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G156" s="8"/>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E156" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G156" s="14"/>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B157" s="2">
         <v>156</v>
       </c>
@@ -4784,15 +4783,15 @@
       <c r="D157" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E157" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F157" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G157" s="8"/>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E157" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G157" s="14"/>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B158" s="2">
         <v>157</v>
       </c>
@@ -4802,15 +4801,15 @@
       <c r="D158" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E158" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F158" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G158" s="8"/>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E158" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G158" s="14"/>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B159" s="2">
         <v>158</v>
       </c>
@@ -4820,15 +4819,15 @@
       <c r="D159" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E159" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F159" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G159" s="8"/>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E159" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G159" s="14"/>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B160" s="2">
         <v>159</v>
       </c>
@@ -4838,15 +4837,15 @@
       <c r="D160" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E160" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F160" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G160" s="8"/>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E160" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F160" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G160" s="14"/>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B161" s="2">
         <v>160</v>
       </c>
@@ -4856,15 +4855,15 @@
       <c r="D161" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E161" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F161" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G161" s="8"/>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E161" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F161" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G161" s="14"/>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B162" s="2">
         <v>161</v>
       </c>
@@ -4874,15 +4873,15 @@
       <c r="D162" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E162" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F162" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G162" s="8"/>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E162" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G162" s="14"/>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B163" s="2">
         <v>162</v>
       </c>
@@ -4892,15 +4891,15 @@
       <c r="D163" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E163" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F163" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G163" s="8"/>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E163" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G163" s="14"/>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B164" s="2">
         <v>163</v>
       </c>
@@ -4910,15 +4909,15 @@
       <c r="D164" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E164" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F164" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G164" s="8"/>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E164" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F164" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G164" s="14"/>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B165" s="2">
         <v>164</v>
       </c>
@@ -4928,15 +4927,15 @@
       <c r="D165" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="E165" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F165" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G165" s="8"/>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E165" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F165" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G165" s="14"/>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B166" s="2">
         <v>165</v>
       </c>
@@ -4946,15 +4945,15 @@
       <c r="D166" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E166" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F166" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G166" s="8"/>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E166" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G166" s="14"/>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B167" s="2">
         <v>166</v>
       </c>
@@ -4964,15 +4963,15 @@
       <c r="D167" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E167" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F167" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G167" s="8"/>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E167" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F167" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G167" s="14"/>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B168" s="2">
         <v>167</v>
       </c>
@@ -4982,15 +4981,15 @@
       <c r="D168" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E168" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F168" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G168" s="8"/>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E168" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G168" s="14"/>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B169" s="2">
         <v>168</v>
       </c>
@@ -5000,15 +4999,15 @@
       <c r="D169" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E169" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F169" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G169" s="8"/>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E169" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G169" s="14"/>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B170" s="2">
         <v>169</v>
       </c>
@@ -5018,15 +5017,15 @@
       <c r="D170" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="E170" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F170" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G170" s="8"/>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E170" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G170" s="14"/>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B171" s="2">
         <v>170</v>
       </c>
@@ -5036,15 +5035,15 @@
       <c r="D171" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="E171" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F171" s="19" t="s">
+      <c r="E171" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F171" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="G171" s="8"/>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G171" s="14"/>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B172" s="2">
         <v>171</v>
       </c>
@@ -5054,15 +5053,15 @@
       <c r="D172" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E172" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F172" s="19" t="s">
+      <c r="E172" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F172" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="G172" s="8"/>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G172" s="14"/>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B173" s="2">
         <v>172</v>
       </c>
@@ -5072,15 +5071,15 @@
       <c r="D173" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E173" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F173" s="19" t="s">
+      <c r="E173" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F173" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="G173" s="8"/>
-    </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G173" s="14"/>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B174" s="2">
         <v>173</v>
       </c>
@@ -5090,15 +5089,15 @@
       <c r="D174" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="E174" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F174" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G174" s="8"/>
-    </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E174" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F174" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G174" s="14"/>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B175" s="2">
         <v>174</v>
       </c>
@@ -5108,15 +5107,15 @@
       <c r="D175" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E175" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F175" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G175" s="8"/>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E175" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F175" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G175" s="14"/>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B176" s="2">
         <v>175</v>
       </c>
@@ -5126,15 +5125,15 @@
       <c r="D176" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E176" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F176" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G176" s="8"/>
-    </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E176" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F176" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G176" s="14"/>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B177" s="2">
         <v>176</v>
       </c>
@@ -5144,15 +5143,15 @@
       <c r="D177" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="E177" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F177" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G177" s="8"/>
-    </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E177" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G177" s="14"/>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B178" s="2">
         <v>177</v>
       </c>
@@ -5162,15 +5161,15 @@
       <c r="D178" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E178" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F178" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G178" s="8"/>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E178" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F178" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G178" s="14"/>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B179" s="2">
         <v>178</v>
       </c>
@@ -5180,15 +5179,15 @@
       <c r="D179" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="E179" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F179" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G179" s="8"/>
-    </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E179" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G179" s="14"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B180" s="2">
         <v>179</v>
       </c>
@@ -5198,15 +5197,15 @@
       <c r="D180" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="E180" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F180" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G180" s="8"/>
-    </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E180" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F180" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G180" s="14"/>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B181" s="2">
         <v>180</v>
       </c>
@@ -5216,15 +5215,15 @@
       <c r="D181" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="E181" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F181" s="19" t="s">
+      <c r="E181" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F181" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="G181" s="8"/>
-    </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G181" s="14"/>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B182" s="2">
         <v>181</v>
       </c>
@@ -5234,15 +5233,15 @@
       <c r="D182" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E182" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F182" s="19" t="s">
+      <c r="E182" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F182" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="G182" s="8"/>
-    </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G182" s="14"/>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B183" s="2">
         <v>182</v>
       </c>
@@ -5252,15 +5251,15 @@
       <c r="D183" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E183" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F183" s="19" t="s">
+      <c r="E183" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F183" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="G183" s="8"/>
-    </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G183" s="14"/>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B184" s="2">
         <v>183</v>
       </c>
@@ -5270,15 +5269,15 @@
       <c r="D184" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="E184" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F184" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G184" s="8"/>
-    </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E184" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F184" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G184" s="14"/>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B185" s="2">
         <v>184</v>
       </c>
@@ -5288,15 +5287,15 @@
       <c r="D185" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E185" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F185" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G185" s="8"/>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E185" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F185" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G185" s="14"/>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B186" s="2">
         <v>185</v>
       </c>
@@ -5306,15 +5305,15 @@
       <c r="D186" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E186" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F186" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G186" s="8"/>
-    </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E186" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G186" s="14"/>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B187" s="2">
         <v>186</v>
       </c>
@@ -5324,15 +5323,15 @@
       <c r="D187" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="E187" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F187" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G187" s="9"/>
-    </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E187" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F187" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G187" s="15"/>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B188" s="2">
         <v>187</v>
       </c>
@@ -5342,17 +5341,17 @@
       <c r="D188" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E188" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F188" s="19" t="s">
+      <c r="E188" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F188" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="G188" s="10" t="s">
+      <c r="G188" s="16" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B189" s="2">
         <v>188</v>
       </c>
@@ -5362,15 +5361,15 @@
       <c r="D189" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="E189" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F189" s="19" t="s">
+      <c r="E189" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F189" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="G189" s="10"/>
-    </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G189" s="16"/>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B190" s="2">
         <v>189</v>
       </c>
@@ -5380,15 +5379,15 @@
       <c r="D190" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="E190" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F190" s="19" t="s">
+      <c r="E190" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F190" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="G190" s="10"/>
-    </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G190" s="16"/>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B191" s="2">
         <v>190</v>
       </c>
@@ -5398,15 +5397,15 @@
       <c r="D191" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E191" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F191" s="19" t="s">
+      <c r="E191" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F191" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="G191" s="10"/>
-    </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G191" s="16"/>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B192" s="2">
         <v>191</v>
       </c>
@@ -5416,15 +5415,15 @@
       <c r="D192" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="E192" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F192" s="19" t="s">
+      <c r="E192" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F192" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="G192" s="10"/>
-    </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G192" s="16"/>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B193" s="2">
         <v>192</v>
       </c>
@@ -5434,15 +5433,15 @@
       <c r="D193" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="E193" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F193" s="19" t="s">
+      <c r="E193" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F193" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="G193" s="10"/>
-    </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G193" s="16"/>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B194" s="2">
         <v>193</v>
       </c>
@@ -5452,15 +5451,15 @@
       <c r="D194" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E194" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F194" s="19" t="s">
+      <c r="E194" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F194" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="G194" s="10"/>
-    </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G194" s="16"/>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B195" s="2">
         <v>194</v>
       </c>
@@ -5470,15 +5469,15 @@
       <c r="D195" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="E195" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F195" s="19" t="s">
+      <c r="E195" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F195" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="G195" s="10"/>
-    </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G195" s="16"/>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B196" s="2">
         <v>195</v>
       </c>
@@ -5488,15 +5487,15 @@
       <c r="D196" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="E196" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F196" s="19" t="s">
+      <c r="E196" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F196" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="G196" s="10"/>
-    </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G196" s="16"/>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B197" s="2">
         <v>196</v>
       </c>
@@ -5506,15 +5505,15 @@
       <c r="D197" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="E197" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F197" s="19" t="s">
+      <c r="E197" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F197" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="G197" s="10"/>
-    </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G197" s="16"/>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B198" s="2">
         <v>197</v>
       </c>
@@ -5524,15 +5523,15 @@
       <c r="D198" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E198" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F198" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G198" s="10"/>
-    </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E198" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F198" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G198" s="16"/>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B199" s="2">
         <v>198</v>
       </c>
@@ -5542,15 +5541,15 @@
       <c r="D199" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E199" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F199" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G199" s="10"/>
-    </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E199" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F199" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G199" s="16"/>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B200" s="2">
         <v>199</v>
       </c>
@@ -5560,15 +5559,15 @@
       <c r="D200" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E200" s="14" t="s">
+      <c r="E200" s="7" t="s">
         <v>444</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="G200" s="10"/>
-    </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G200" s="16"/>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B201" s="2">
         <v>200</v>
       </c>
@@ -5578,15 +5577,15 @@
       <c r="D201" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E201" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F201" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G201" s="10"/>
-    </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E201" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F201" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G201" s="16"/>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B202" s="2">
         <v>201</v>
       </c>
@@ -5596,15 +5595,15 @@
       <c r="D202" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="E202" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F202" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="G202" s="10"/>
-    </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E202" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G202" s="16"/>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B203" s="2">
         <v>202</v>
       </c>
@@ -5614,17 +5613,17 @@
       <c r="D203" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E203" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F203" s="19" t="s">
+      <c r="E203" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F203" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="G203" s="11" t="s">
+      <c r="G203" s="17" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B204" s="2">
         <v>203</v>
       </c>
@@ -5634,15 +5633,15 @@
       <c r="D204" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="E204" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F204" s="19" t="s">
+      <c r="E204" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F204" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="G204" s="12"/>
-    </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G204" s="18"/>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B205" s="2">
         <v>204</v>
       </c>
@@ -5652,15 +5651,15 @@
       <c r="D205" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="E205" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F205" s="19" t="s">
+      <c r="E205" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F205" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="G205" s="12"/>
-    </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G205" s="18"/>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B206" s="2">
         <v>205</v>
       </c>
@@ -5670,15 +5669,15 @@
       <c r="D206" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="E206" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F206" s="19" t="s">
+      <c r="E206" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F206" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="G206" s="12"/>
-    </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G206" s="18"/>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B207" s="2">
         <v>206</v>
       </c>
@@ -5688,15 +5687,15 @@
       <c r="D207" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="E207" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F207" s="19" t="s">
+      <c r="E207" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F207" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="G207" s="13"/>
-    </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G207" s="19"/>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B208" s="2">
         <v>207</v>
       </c>
@@ -5706,17 +5705,17 @@
       <c r="D208" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="E208" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F208" s="19" t="s">
+      <c r="E208" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F208" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="G208" s="11" t="s">
+      <c r="G208" s="17" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B209" s="2">
         <v>208</v>
       </c>
@@ -5726,15 +5725,15 @@
       <c r="D209" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E209" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F209" s="19" t="s">
+      <c r="E209" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F209" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="G209" s="12"/>
-    </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G209" s="18"/>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B210" s="2">
         <v>209</v>
       </c>
@@ -5744,15 +5743,15 @@
       <c r="D210" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="E210" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F210" s="19" t="s">
+      <c r="E210" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F210" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="G210" s="12"/>
-    </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G210" s="18"/>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B211" s="2">
         <v>210</v>
       </c>
@@ -5762,15 +5761,15 @@
       <c r="D211" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="E211" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F211" s="19" t="s">
+      <c r="E211" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F211" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="G211" s="12"/>
-    </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G211" s="18"/>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B212" s="2">
         <v>211</v>
       </c>
@@ -5780,15 +5779,15 @@
       <c r="D212" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="E212" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F212" s="17" t="s">
+      <c r="E212" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F212" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="G212" s="13"/>
-    </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G212" s="19"/>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B213" s="2">
         <v>212</v>
       </c>
@@ -5798,17 +5797,17 @@
       <c r="D213" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E213" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F213" s="19" t="s">
+      <c r="E213" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F213" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="G213" s="7" t="s">
+      <c r="G213" s="13" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B214" s="2">
         <v>213</v>
       </c>
@@ -5818,15 +5817,15 @@
       <c r="D214" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="E214" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F214" s="19" t="s">
+      <c r="E214" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F214" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="G214" s="8"/>
-    </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G214" s="14"/>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B215" s="2">
         <v>214</v>
       </c>
@@ -5836,15 +5835,15 @@
       <c r="D215" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="E215" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F215" s="17" t="s">
+      <c r="E215" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F215" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="G215" s="9"/>
-    </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G215" s="15"/>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B216" s="2">
         <v>215</v>
       </c>
@@ -5854,17 +5853,17 @@
       <c r="D216" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E216" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F216" s="19" t="s">
+      <c r="E216" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F216" s="12" t="s">
         <v>461</v>
       </c>
       <c r="G216" s="6" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B217" s="2">
         <v>216</v>
       </c>
@@ -5874,17 +5873,17 @@
       <c r="D217" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="E217" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F217" s="19" t="s">
+      <c r="E217" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F217" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="G217" s="7" t="s">
+      <c r="G217" s="13" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B218" s="2">
         <v>217</v>
       </c>
@@ -5894,15 +5893,15 @@
       <c r="D218" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="E218" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F218" s="19" t="s">
+      <c r="E218" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F218" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="G218" s="8"/>
-    </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G218" s="14"/>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B219" s="2">
         <v>218</v>
       </c>
@@ -5912,15 +5911,15 @@
       <c r="D219" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E219" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F219" s="19" t="s">
+      <c r="E219" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F219" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="G219" s="8"/>
-    </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G219" s="14"/>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B220" s="2">
         <v>219</v>
       </c>
@@ -5930,15 +5929,15 @@
       <c r="D220" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="E220" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F220" s="19" t="s">
+      <c r="E220" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F220" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="G220" s="8"/>
-    </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G220" s="14"/>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B221" s="2">
         <v>220</v>
       </c>
@@ -5948,15 +5947,15 @@
       <c r="D221" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="E221" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F221" s="19" t="s">
+      <c r="E221" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F221" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="G221" s="8"/>
-    </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G221" s="14"/>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B222" s="2">
         <v>221</v>
       </c>
@@ -5966,15 +5965,15 @@
       <c r="D222" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="E222" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F222" s="19" t="s">
+      <c r="E222" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F222" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="G222" s="8"/>
-    </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G222" s="14"/>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B223" s="2">
         <v>222</v>
       </c>
@@ -5984,15 +5983,15 @@
       <c r="D223" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E223" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="F223" s="19" t="s">
+      <c r="E223" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F223" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="G223" s="8"/>
-    </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G223" s="14"/>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B224" s="2">
         <v>223</v>
       </c>
@@ -6002,15 +6001,15 @@
       <c r="D224" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="E224" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F224" s="16" t="s">
+      <c r="E224" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F224" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="G224" s="8"/>
-    </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G224" s="14"/>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B225" s="2">
         <v>224</v>
       </c>
@@ -6020,15 +6019,15 @@
       <c r="D225" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E225" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F225" s="16" t="s">
+      <c r="E225" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F225" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="G225" s="8"/>
-    </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G225" s="14"/>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B226" s="2">
         <v>225</v>
       </c>
@@ -6038,15 +6037,15 @@
       <c r="D226" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="E226" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F226" s="19" t="s">
+      <c r="E226" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F226" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="G226" s="8"/>
-    </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G226" s="14"/>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B227" s="2">
         <v>226</v>
       </c>
@@ -6056,13 +6055,13 @@
       <c r="D227" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="E227" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="F227" s="19" t="s">
+      <c r="E227" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F227" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="G227" s="9"/>
+      <c r="G227" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
